--- a/Hybrid_framework/test_data/orange_test_data.xlsx
+++ b/Hybrid_framework/test_data/orange_test_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/maulin_desai_einfochips_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup Folders\Proposal\Python skills\gitcode\Hybrid_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C814E0-45D1-4BED-BC2E-893834B49C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085F326-8439-43FB-902C-5F5191B426DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A525AB00-7CBD-4035-B30C-624260B21AD9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A525AB00-7CBD-4035-B30C-624260B21AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="test_add_valid_employee" sheetId="1" r:id="rId1"/>
+    <sheet name="test_invalid_profile_upload" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -78,6 +79,30 @@
   </si>
   <si>
     <t>ken</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Upload File Detail</t>
+  </si>
+  <si>
+    <t>Expected Error</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>C:\Mine\Balaji-Profile_2023.pdf</t>
+  </si>
+  <si>
+    <t>File type not allowed</t>
+  </si>
+  <si>
+    <t>C:\Mine\iFuture.txt</t>
   </si>
 </sst>
 </file>
@@ -113,7 +138,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474A1250-9F79-409E-935A-5AD2130DC74A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -495,4 +521,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9E90A-77B5-4143-8063-7B878DECEFF5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>